--- a/User_Stories.xlsx
+++ b/User_Stories.xlsx
@@ -8,24 +8,34 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\Desktop\Project_1\project1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A95F76DD-00A6-40CE-BA51-DC70588D3056}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3DFEE52-3FF6-4092-8CCA-5E1433B15983}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27705" yWindow="13365" windowWidth="17280" windowHeight="8955" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-17880" yWindow="11175" windowWidth="17280" windowHeight="8955" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="94">
   <si>
     <t>User_Stories</t>
   </si>
@@ -208,13 +218,112 @@
   </si>
   <si>
     <t>Need to be logged in as a Manager</t>
+  </si>
+  <si>
+    <t>Account needs to be an appending status</t>
+  </si>
+  <si>
+    <t>need to be asign approved and denied</t>
+  </si>
+  <si>
+    <t>If denied give explanation</t>
+  </si>
+  <si>
+    <t>AD-2</t>
+  </si>
+  <si>
+    <t>AD-3</t>
+  </si>
+  <si>
+    <t>AD-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EL-1 </t>
+  </si>
+  <si>
+    <t>Positive</t>
+  </si>
+  <si>
+    <t>Negitive</t>
+  </si>
+  <si>
+    <t>Don’t enter any user name</t>
+  </si>
+  <si>
+    <t>Don’t enter a password</t>
+  </si>
+  <si>
+    <t>Enter user name and passwrd of stored employee</t>
+  </si>
+  <si>
+    <t>User name and password that is not in the system</t>
+  </si>
+  <si>
+    <t>Test cases</t>
+  </si>
+  <si>
+    <t>Proof is uploaded in Image form</t>
+  </si>
+  <si>
+    <t>type is one of the four reimbusements</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type does not match                                                     Nothing selected </t>
+  </si>
+  <si>
+    <t>information imput</t>
+  </si>
+  <si>
+    <t>Enters a positve number</t>
+  </si>
+  <si>
+    <t>Anything other than an image is uploaded /           Nothing is uploaded</t>
+  </si>
+  <si>
+    <t>"                                    "</t>
+  </si>
+  <si>
+    <t>If the user enters negitive number.                                    User left blank.</t>
+  </si>
+  <si>
+    <t>User enters anthing but number</t>
+  </si>
+  <si>
+    <t>All employees reimbustements</t>
+  </si>
+  <si>
+    <t>Displays all reimbursements of that employee</t>
+  </si>
+  <si>
+    <t>Filter for each status. ( for 3 test cases)</t>
+  </si>
+  <si>
+    <t>Filter for each status. ( for 3 test cases) ALL employees</t>
+  </si>
+  <si>
+    <t>filter by employee ID</t>
+  </si>
+  <si>
+    <t>employee does not exist</t>
+  </si>
+  <si>
+    <t>undate account with pending status. (two test cases)</t>
+  </si>
+  <si>
+    <t>try to edit approved or denied accounts</t>
+  </si>
+  <si>
+    <t>denied and discription given.                                           Approved with no discription</t>
+  </si>
+  <si>
+    <t>denied with no discription</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -228,6 +337,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -237,7 +354,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -245,12 +362,134 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -531,269 +770,658 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="11.1015625" customWidth="1"/>
-    <col min="2" max="2" width="27.05078125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.89453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="49" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.3125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.47265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.41796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="51.7890625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.83984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="49.15625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="46.7890625" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.83984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" t="s">
+      <c r="E2" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F2" s="6"/>
+      <c r="G2" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C4" t="s">
+      <c r="E3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F3" s="6"/>
+      <c r="G3" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="5"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C5" t="s">
+      <c r="E4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D5" t="s">
+      <c r="F4" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="5"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" t="s">
+      <c r="E5" s="5"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="7"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="5"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="7"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="5"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="7"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C9" t="s">
+      <c r="E8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="6"/>
+      <c r="G8" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="5"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C10" t="s">
+      <c r="E9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="6"/>
+      <c r="G9" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="5"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" t="s">
+      <c r="E10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="5"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="7"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="5"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="7"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C14" t="s">
+      <c r="E13" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" s="6"/>
+      <c r="G13" s="7"/>
+    </row>
+    <row r="14" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="5"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="7" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C15" t="s">
+      <c r="E14" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="5"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="7" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C16" t="s">
+      <c r="E15" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" s="6"/>
+      <c r="G15" s="7"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="5"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="7" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C17" t="s">
+      <c r="E16" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" s="6"/>
+      <c r="G16" s="7"/>
+    </row>
+    <row r="17" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="5"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="7" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C18" t="s">
+      <c r="E17" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="5"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="7" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C19" t="s">
+      <c r="E18" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G18" s="7"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="5"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="7" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C20" t="s">
+      <c r="E19" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F19" s="6"/>
+      <c r="G19" s="7"/>
+    </row>
+    <row r="20" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="5"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="7" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C21" t="s">
+      <c r="E20" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="5"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="7" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" t="s">
+      <c r="E21" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="5"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="7"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="5"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="7"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="7" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" t="s">
+      <c r="E24" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="G24" s="7"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="5"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="7"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="5"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="7"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="7" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" t="s">
+      <c r="E27" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G27" s="7"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="5"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="7"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="5"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="7"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="7" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C31" t="s">
+      <c r="E30" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" s="6"/>
+      <c r="G30" s="7"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="5"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="7" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" t="s">
+      <c r="E31" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="G31" s="7"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="5"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="7"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="5"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="7"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="7" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C35" t="s">
+      <c r="E34" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F34" s="6"/>
+      <c r="G34" s="7"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="5"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="7" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C36" t="s">
+      <c r="E35" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="G35" s="7"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="5"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="7" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" t="s">
+      <c r="E36" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="5"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="7"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="5"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="7"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="7" t="s">
         <v>60</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F39" s="6"/>
+      <c r="G39" s="7"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="5"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="5"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F41" s="6"/>
+      <c r="G41" s="7"/>
+    </row>
+    <row r="42" spans="1:7" ht="29.1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A42" s="10"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="D42" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F42" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="G42" s="12" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
